--- a/Financials/Quarterly/ACH_QTR_FIN.xlsx
+++ b/Financials/Quarterly/ACH_QTR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1735CED7-7B79-4630-BE58-4E584755827E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ACH" sheetId="6" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,39 +689,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="6.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -715,94 +750,94 @@
         <v>42094</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11933400</v>
+        <v>12177900</v>
       </c>
       <c r="E8" s="3">
-        <v>12909900</v>
+        <v>13174400</v>
       </c>
       <c r="F8" s="3">
-        <v>13295400</v>
+        <v>13567800</v>
       </c>
       <c r="G8" s="3">
-        <v>13710100</v>
+        <v>13991100</v>
       </c>
       <c r="H8" s="3">
-        <v>7265100</v>
+        <v>7414000</v>
       </c>
       <c r="I8" s="3">
-        <v>8338100</v>
+        <v>8509000</v>
       </c>
       <c r="J8" s="3">
-        <v>9618900</v>
+        <v>9816000</v>
       </c>
       <c r="K8" s="3">
         <v>3983100</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11024800</v>
+        <v>11250800</v>
       </c>
       <c r="E9" s="3">
-        <v>11717100</v>
+        <v>11957200</v>
       </c>
       <c r="F9" s="3">
-        <v>12392900</v>
+        <v>12646800</v>
       </c>
       <c r="G9" s="3">
-        <v>12755800</v>
+        <v>13017200</v>
       </c>
       <c r="H9" s="3">
-        <v>6684400</v>
+        <v>6821400</v>
       </c>
       <c r="I9" s="3">
-        <v>8459900</v>
+        <v>8633300</v>
       </c>
       <c r="J9" s="3">
-        <v>9134600</v>
+        <v>9321800</v>
       </c>
       <c r="K9" s="3">
         <v>3767500</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>908600</v>
+        <v>927200</v>
       </c>
       <c r="E10" s="3">
-        <v>1192700</v>
+        <v>1217100</v>
       </c>
       <c r="F10" s="3">
-        <v>902500</v>
+        <v>921000</v>
       </c>
       <c r="G10" s="3">
-        <v>954300</v>
+        <v>973800</v>
       </c>
       <c r="H10" s="3">
-        <v>580700</v>
+        <v>592600</v>
       </c>
       <c r="I10" s="3">
-        <v>-121800</v>
+        <v>-124300</v>
       </c>
       <c r="J10" s="3">
-        <v>484300</v>
+        <v>494200</v>
       </c>
       <c r="K10" s="3">
         <v>215600</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -815,36 +850,36 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>19700</v>
+        <v>20100</v>
       </c>
       <c r="E12" s="3">
-        <v>67700</v>
+        <v>69100</v>
       </c>
       <c r="F12" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="G12" s="3">
-        <v>13000</v>
+        <v>13200</v>
       </c>
       <c r="H12" s="3">
-        <v>11600</v>
+        <v>11800</v>
       </c>
       <c r="I12" s="3">
-        <v>12500</v>
+        <v>12700</v>
       </c>
       <c r="J12" s="3">
-        <v>12100</v>
+        <v>12300</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -873,7 +908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -881,28 +916,28 @@
         <v>300</v>
       </c>
       <c r="E14" s="3">
-        <v>-44500</v>
+        <v>-45400</v>
       </c>
       <c r="F14" s="3">
         <v>-1000</v>
       </c>
       <c r="G14" s="3">
-        <v>70800</v>
+        <v>72300</v>
       </c>
       <c r="H14" s="3">
-        <v>-100000</v>
+        <v>-102000</v>
       </c>
       <c r="I14" s="3">
-        <v>-384300</v>
+        <v>-392200</v>
       </c>
       <c r="J14" s="3">
-        <v>-111700</v>
+        <v>-114000</v>
       </c>
       <c r="K14" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -916,22 +951,22 @@
         <v>8</v>
       </c>
       <c r="G15" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H15" s="3">
-        <v>12600</v>
+        <v>12900</v>
       </c>
       <c r="I15" s="3">
-        <v>18000</v>
+        <v>18400</v>
       </c>
       <c r="J15" s="3">
-        <v>15000</v>
+        <v>15300</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -941,65 +976,65 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11320900</v>
+        <v>11552900</v>
       </c>
       <c r="E17" s="3">
-        <v>12315200</v>
+        <v>12567600</v>
       </c>
       <c r="F17" s="3">
-        <v>12779000</v>
+        <v>13040800</v>
       </c>
       <c r="G17" s="3">
-        <v>13244700</v>
+        <v>13516100</v>
       </c>
       <c r="H17" s="3">
-        <v>6885600</v>
+        <v>7026700</v>
       </c>
       <c r="I17" s="3">
-        <v>8007300</v>
+        <v>8171400</v>
       </c>
       <c r="J17" s="3">
-        <v>9225800</v>
+        <v>9414900</v>
       </c>
       <c r="K17" s="3">
         <v>4027200</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>612500</v>
+        <v>625100</v>
       </c>
       <c r="E18" s="3">
-        <v>594600</v>
+        <v>606800</v>
       </c>
       <c r="F18" s="3">
-        <v>516400</v>
+        <v>527000</v>
       </c>
       <c r="G18" s="3">
-        <v>465400</v>
+        <v>475000</v>
       </c>
       <c r="H18" s="3">
-        <v>379500</v>
+        <v>387300</v>
       </c>
       <c r="I18" s="3">
-        <v>330800</v>
+        <v>337600</v>
       </c>
       <c r="J18" s="3">
-        <v>393100</v>
+        <v>401200</v>
       </c>
       <c r="K18" s="3">
         <v>-44100</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1012,152 +1047,152 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-7400</v>
+        <v>-7500</v>
       </c>
       <c r="E20" s="3">
-        <v>-22100</v>
+        <v>-22500</v>
       </c>
       <c r="F20" s="3">
-        <v>47800</v>
+        <v>48700</v>
       </c>
       <c r="G20" s="3">
-        <v>50900</v>
+        <v>51900</v>
       </c>
       <c r="H20" s="3">
-        <v>32200</v>
+        <v>32800</v>
       </c>
       <c r="I20" s="3">
-        <v>40100</v>
+        <v>40900</v>
       </c>
       <c r="J20" s="3">
-        <v>67300</v>
+        <v>68700</v>
       </c>
       <c r="K20" s="3">
         <v>65900</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1154400</v>
+        <v>1178000</v>
       </c>
       <c r="E21" s="3">
-        <v>1091100</v>
+        <v>1113500</v>
       </c>
       <c r="F21" s="3">
-        <v>1048600</v>
+        <v>1070100</v>
       </c>
       <c r="G21" s="3">
-        <v>1005900</v>
+        <v>1026500</v>
       </c>
       <c r="H21" s="3">
-        <v>914300</v>
+        <v>933100</v>
       </c>
       <c r="I21" s="3">
-        <v>897500</v>
+        <v>915900</v>
       </c>
       <c r="J21" s="3">
-        <v>979000</v>
+        <v>999100</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>324700</v>
+        <v>331400</v>
       </c>
       <c r="E22" s="3">
-        <v>366800</v>
+        <v>374300</v>
       </c>
       <c r="F22" s="3">
-        <v>334500</v>
+        <v>341400</v>
       </c>
       <c r="G22" s="3">
-        <v>354900</v>
+        <v>362200</v>
       </c>
       <c r="H22" s="3">
-        <v>336700</v>
+        <v>343600</v>
       </c>
       <c r="I22" s="3">
-        <v>371800</v>
+        <v>379400</v>
       </c>
       <c r="J22" s="3">
-        <v>439700</v>
+        <v>448700</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>280500</v>
+        <v>286200</v>
       </c>
       <c r="E23" s="3">
-        <v>205800</v>
+        <v>210000</v>
       </c>
       <c r="F23" s="3">
-        <v>229600</v>
+        <v>234300</v>
       </c>
       <c r="G23" s="3">
-        <v>161400</v>
+        <v>164700</v>
       </c>
       <c r="H23" s="3">
-        <v>75000</v>
+        <v>76600</v>
       </c>
       <c r="I23" s="3">
         <v>-800</v>
       </c>
       <c r="J23" s="3">
-        <v>20700</v>
+        <v>21200</v>
       </c>
       <c r="K23" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>82600</v>
+        <v>84300</v>
       </c>
       <c r="E24" s="3">
-        <v>42700</v>
+        <v>43600</v>
       </c>
       <c r="F24" s="3">
-        <v>50700</v>
+        <v>51700</v>
       </c>
       <c r="G24" s="3">
-        <v>36300</v>
+        <v>37100</v>
       </c>
       <c r="H24" s="3">
-        <v>22400</v>
+        <v>22900</v>
       </c>
       <c r="I24" s="3">
-        <v>-28200</v>
+        <v>-28700</v>
       </c>
       <c r="J24" s="3">
-        <v>-5300</v>
+        <v>-5400</v>
       </c>
       <c r="K24" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1186,56 +1221,56 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>197900</v>
+        <v>201900</v>
       </c>
       <c r="E26" s="3">
-        <v>163000</v>
+        <v>166400</v>
       </c>
       <c r="F26" s="3">
-        <v>179000</v>
+        <v>182600</v>
       </c>
       <c r="G26" s="3">
-        <v>125000</v>
+        <v>127600</v>
       </c>
       <c r="H26" s="3">
-        <v>52600</v>
+        <v>53700</v>
       </c>
       <c r="I26" s="3">
-        <v>27300</v>
+        <v>27900</v>
       </c>
       <c r="J26" s="3">
-        <v>26000</v>
+        <v>26600</v>
       </c>
       <c r="K26" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>115400</v>
+        <v>117800</v>
       </c>
       <c r="E27" s="3">
-        <v>83100</v>
+        <v>84800</v>
       </c>
       <c r="F27" s="3">
-        <v>99200</v>
+        <v>101300</v>
       </c>
       <c r="G27" s="3">
-        <v>35700</v>
+        <v>36400</v>
       </c>
       <c r="H27" s="3">
         <v>1900</v>
       </c>
       <c r="I27" s="3">
-        <v>18600</v>
+        <v>19000</v>
       </c>
       <c r="J27" s="3">
         <v>200</v>
@@ -1244,7 +1279,7 @@
         <v>9200</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1273,7 +1308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1302,7 +1337,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1331,7 +1366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1360,56 +1395,56 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>7400</v>
+        <v>7500</v>
       </c>
       <c r="E32" s="3">
-        <v>22100</v>
+        <v>22500</v>
       </c>
       <c r="F32" s="3">
-        <v>-47800</v>
+        <v>-48700</v>
       </c>
       <c r="G32" s="3">
-        <v>-50900</v>
+        <v>-51900</v>
       </c>
       <c r="H32" s="3">
-        <v>-32200</v>
+        <v>-32800</v>
       </c>
       <c r="I32" s="3">
-        <v>-40100</v>
+        <v>-40900</v>
       </c>
       <c r="J32" s="3">
-        <v>-67300</v>
+        <v>-68700</v>
       </c>
       <c r="K32" s="3">
         <v>-65900</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>115400</v>
+        <v>117800</v>
       </c>
       <c r="E33" s="3">
-        <v>83100</v>
+        <v>84800</v>
       </c>
       <c r="F33" s="3">
-        <v>99200</v>
+        <v>101300</v>
       </c>
       <c r="G33" s="3">
-        <v>35700</v>
+        <v>36400</v>
       </c>
       <c r="H33" s="3">
         <v>1900</v>
       </c>
       <c r="I33" s="3">
-        <v>18600</v>
+        <v>19000</v>
       </c>
       <c r="J33" s="3">
         <v>200</v>
@@ -1418,7 +1453,7 @@
         <v>9200</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1447,27 +1482,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>115400</v>
+        <v>117800</v>
       </c>
       <c r="E35" s="3">
-        <v>83100</v>
+        <v>84800</v>
       </c>
       <c r="F35" s="3">
-        <v>99200</v>
+        <v>101300</v>
       </c>
       <c r="G35" s="3">
-        <v>35700</v>
+        <v>36400</v>
       </c>
       <c r="H35" s="3">
         <v>1900</v>
       </c>
       <c r="I35" s="3">
-        <v>18600</v>
+        <v>19000</v>
       </c>
       <c r="J35" s="3">
         <v>200</v>
@@ -1476,12 +1511,12 @@
         <v>9200</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1510,7 +1545,7 @@
         <v>42094</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1523,7 +1558,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1536,268 +1571,268 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3559700</v>
+        <v>3632600</v>
       </c>
       <c r="E41" s="3">
-        <v>4035800</v>
+        <v>4118500</v>
       </c>
       <c r="F41" s="3">
-        <v>2633100</v>
+        <v>2687100</v>
       </c>
       <c r="G41" s="3">
-        <v>3463200</v>
+        <v>3534200</v>
       </c>
       <c r="H41" s="3">
-        <v>2723000</v>
+        <v>2778800</v>
       </c>
       <c r="I41" s="3">
-        <v>3018600</v>
+        <v>3080400</v>
       </c>
       <c r="J41" s="3">
-        <v>2631200</v>
+        <v>2685200</v>
       </c>
       <c r="K41" s="3">
         <v>2782200</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>750000</v>
+        <v>765400</v>
       </c>
       <c r="E42" s="3">
         <v>1400</v>
       </c>
       <c r="F42" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="G42" s="3">
-        <v>8000</v>
+        <v>8100</v>
       </c>
       <c r="H42" s="3">
         <v>2800</v>
       </c>
       <c r="I42" s="3">
-        <v>33000</v>
+        <v>33700</v>
       </c>
       <c r="J42" s="3">
-        <v>613300</v>
+        <v>625900</v>
       </c>
       <c r="K42" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1343800</v>
+        <v>1371300</v>
       </c>
       <c r="E43" s="3">
-        <v>1167300</v>
+        <v>1191200</v>
       </c>
       <c r="F43" s="3">
-        <v>1230900</v>
+        <v>1256100</v>
       </c>
       <c r="G43" s="3">
-        <v>1068800</v>
+        <v>1090700</v>
       </c>
       <c r="H43" s="3">
-        <v>956600</v>
+        <v>976200</v>
       </c>
       <c r="I43" s="3">
-        <v>748000</v>
+        <v>763300</v>
       </c>
       <c r="J43" s="3">
-        <v>980100</v>
+        <v>1000200</v>
       </c>
       <c r="K43" s="3">
         <v>1997700</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3315700</v>
+        <v>3383700</v>
       </c>
       <c r="E44" s="3">
-        <v>2959000</v>
+        <v>3019700</v>
       </c>
       <c r="F44" s="3">
-        <v>2946700</v>
+        <v>3007100</v>
       </c>
       <c r="G44" s="3">
-        <v>2608100</v>
+        <v>2661500</v>
       </c>
       <c r="H44" s="3">
-        <v>2798300</v>
+        <v>2855600</v>
       </c>
       <c r="I44" s="3">
-        <v>2958200</v>
+        <v>3018900</v>
       </c>
       <c r="J44" s="3">
-        <v>3411200</v>
+        <v>3481100</v>
       </c>
       <c r="K44" s="3">
         <v>3772000</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1216400</v>
+        <v>1241300</v>
       </c>
       <c r="E45" s="3">
-        <v>1776600</v>
+        <v>1813000</v>
       </c>
       <c r="F45" s="3">
-        <v>2163500</v>
+        <v>2207800</v>
       </c>
       <c r="G45" s="3">
-        <v>2521100</v>
+        <v>2572700</v>
       </c>
       <c r="H45" s="3">
-        <v>2888600</v>
+        <v>2947700</v>
       </c>
       <c r="I45" s="3">
-        <v>2616900</v>
+        <v>2670600</v>
       </c>
       <c r="J45" s="3">
-        <v>2391000</v>
+        <v>2440000</v>
       </c>
       <c r="K45" s="3">
         <v>1132900</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10185600</v>
+        <v>10394300</v>
       </c>
       <c r="E46" s="3">
-        <v>9940000</v>
+        <v>10143700</v>
       </c>
       <c r="F46" s="3">
-        <v>8978400</v>
+        <v>9162400</v>
       </c>
       <c r="G46" s="3">
-        <v>9669200</v>
+        <v>9867300</v>
       </c>
       <c r="H46" s="3">
-        <v>9369300</v>
+        <v>9561300</v>
       </c>
       <c r="I46" s="3">
-        <v>9374800</v>
+        <v>9566900</v>
       </c>
       <c r="J46" s="3">
-        <v>10026800</v>
+        <v>10232300</v>
       </c>
       <c r="K46" s="3">
         <v>9689300</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2054400</v>
+        <v>2096500</v>
       </c>
       <c r="E47" s="3">
-        <v>2162700</v>
+        <v>2207000</v>
       </c>
       <c r="F47" s="3">
-        <v>1983300</v>
+        <v>2023900</v>
       </c>
       <c r="G47" s="3">
-        <v>1793300</v>
+        <v>1830100</v>
       </c>
       <c r="H47" s="3">
-        <v>1686500</v>
+        <v>1721000</v>
       </c>
       <c r="I47" s="3">
-        <v>1582900</v>
+        <v>1615300</v>
       </c>
       <c r="J47" s="3">
-        <v>962100</v>
+        <v>981800</v>
       </c>
       <c r="K47" s="3">
         <v>1014700</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>14632400</v>
+        <v>14932200</v>
       </c>
       <c r="E48" s="3">
-        <v>14169100</v>
+        <v>14459500</v>
       </c>
       <c r="F48" s="3">
-        <v>13639300</v>
+        <v>13918800</v>
       </c>
       <c r="G48" s="3">
-        <v>13397600</v>
+        <v>13672100</v>
       </c>
       <c r="H48" s="3">
-        <v>12764400</v>
+        <v>13026000</v>
       </c>
       <c r="I48" s="3">
-        <v>13325200</v>
+        <v>13598300</v>
       </c>
       <c r="J48" s="3">
-        <v>13615500</v>
+        <v>13894500</v>
       </c>
       <c r="K48" s="3">
         <v>13660000</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2122900</v>
+        <v>2166400</v>
       </c>
       <c r="E49" s="3">
-        <v>2090400</v>
+        <v>2133200</v>
       </c>
       <c r="F49" s="3">
-        <v>2004500</v>
+        <v>2045600</v>
       </c>
       <c r="G49" s="3">
-        <v>2029400</v>
+        <v>2071000</v>
       </c>
       <c r="H49" s="3">
-        <v>1893800</v>
+        <v>1932600</v>
       </c>
       <c r="I49" s="3">
-        <v>2413700</v>
+        <v>2463200</v>
       </c>
       <c r="J49" s="3">
-        <v>2051000</v>
+        <v>2093000</v>
       </c>
       <c r="K49" s="3">
         <v>2064100</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1826,7 +1861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1855,36 +1890,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>772900</v>
+        <v>788800</v>
       </c>
       <c r="E52" s="3">
-        <v>745100</v>
+        <v>760400</v>
       </c>
       <c r="F52" s="3">
-        <v>698900</v>
+        <v>713300</v>
       </c>
       <c r="G52" s="3">
-        <v>816600</v>
+        <v>833300</v>
       </c>
       <c r="H52" s="3">
-        <v>1263500</v>
+        <v>1289300</v>
       </c>
       <c r="I52" s="3">
-        <v>1628300</v>
+        <v>1661600</v>
       </c>
       <c r="J52" s="3">
-        <v>1801700</v>
+        <v>1838700</v>
       </c>
       <c r="K52" s="3">
         <v>1939600</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1913,36 +1948,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>29768200</v>
+        <v>30378200</v>
       </c>
       <c r="E54" s="3">
-        <v>29107300</v>
+        <v>29703800</v>
       </c>
       <c r="F54" s="3">
-        <v>27304500</v>
+        <v>27864000</v>
       </c>
       <c r="G54" s="3">
-        <v>27706100</v>
+        <v>28273800</v>
       </c>
       <c r="H54" s="3">
-        <v>26977400</v>
+        <v>27530200</v>
       </c>
       <c r="I54" s="3">
-        <v>27931100</v>
+        <v>28503400</v>
       </c>
       <c r="J54" s="3">
-        <v>28457200</v>
+        <v>29040300</v>
       </c>
       <c r="K54" s="3">
         <v>28367600</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1955,7 +1990,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1968,181 +2003,181 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3789200</v>
+        <v>3866800</v>
       </c>
       <c r="E57" s="3">
-        <v>3915700</v>
+        <v>3995900</v>
       </c>
       <c r="F57" s="3">
-        <v>3928800</v>
+        <v>4009400</v>
       </c>
       <c r="G57" s="3">
-        <v>3542700</v>
+        <v>3615300</v>
       </c>
       <c r="H57" s="3">
-        <v>3437300</v>
+        <v>3507800</v>
       </c>
       <c r="I57" s="3">
-        <v>3900000</v>
+        <v>3979900</v>
       </c>
       <c r="J57" s="3">
-        <v>4216800</v>
+        <v>4303200</v>
       </c>
       <c r="K57" s="3">
         <v>1525700</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7712700</v>
+        <v>7870800</v>
       </c>
       <c r="E58" s="3">
-        <v>9126100</v>
+        <v>9313100</v>
       </c>
       <c r="F58" s="3">
-        <v>10044100</v>
+        <v>10250000</v>
       </c>
       <c r="G58" s="3">
-        <v>8501700</v>
+        <v>8676000</v>
       </c>
       <c r="H58" s="3">
-        <v>8787400</v>
+        <v>8967500</v>
       </c>
       <c r="I58" s="3">
-        <v>7963900</v>
+        <v>8127100</v>
       </c>
       <c r="J58" s="3">
-        <v>8129100</v>
+        <v>8295700</v>
       </c>
       <c r="K58" s="3">
         <v>6487900</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>408300</v>
+        <v>416600</v>
       </c>
       <c r="E59" s="3">
-        <v>43600</v>
+        <v>44500</v>
       </c>
       <c r="F59" s="3">
-        <v>36800</v>
+        <v>37600</v>
       </c>
       <c r="G59" s="3">
-        <v>52400</v>
+        <v>53500</v>
       </c>
       <c r="H59" s="3">
-        <v>27700</v>
+        <v>28200</v>
       </c>
       <c r="I59" s="3">
-        <v>33300</v>
+        <v>34000</v>
       </c>
       <c r="J59" s="3">
-        <v>43600</v>
+        <v>44500</v>
       </c>
       <c r="K59" s="3">
         <v>6216800</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>11910100</v>
+        <v>12154200</v>
       </c>
       <c r="E60" s="3">
-        <v>13085300</v>
+        <v>13353500</v>
       </c>
       <c r="F60" s="3">
-        <v>14009800</v>
+        <v>14296900</v>
       </c>
       <c r="G60" s="3">
-        <v>12096800</v>
+        <v>12344700</v>
       </c>
       <c r="H60" s="3">
-        <v>12252400</v>
+        <v>12503500</v>
       </c>
       <c r="I60" s="3">
-        <v>11897200</v>
+        <v>12141000</v>
       </c>
       <c r="J60" s="3">
-        <v>12389600</v>
+        <v>12643400</v>
       </c>
       <c r="K60" s="3">
         <v>14230400</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7302600</v>
+        <v>7452300</v>
       </c>
       <c r="E61" s="3">
-        <v>5859300</v>
+        <v>5979400</v>
       </c>
       <c r="F61" s="3">
-        <v>5139500</v>
+        <v>5244800</v>
       </c>
       <c r="G61" s="3">
-        <v>6882100</v>
+        <v>7023200</v>
       </c>
       <c r="H61" s="3">
-        <v>6749500</v>
+        <v>6887800</v>
       </c>
       <c r="I61" s="3">
-        <v>7853300</v>
+        <v>8014300</v>
       </c>
       <c r="J61" s="3">
-        <v>8573000</v>
+        <v>8748700</v>
       </c>
       <c r="K61" s="3">
         <v>7550100</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>647200</v>
+        <v>660500</v>
       </c>
       <c r="E62" s="3">
-        <v>635000</v>
+        <v>648000</v>
       </c>
       <c r="F62" s="3">
-        <v>584500</v>
+        <v>596400</v>
       </c>
       <c r="G62" s="3">
-        <v>614000</v>
+        <v>626600</v>
       </c>
       <c r="H62" s="3">
-        <v>590200</v>
+        <v>602200</v>
       </c>
       <c r="I62" s="3">
-        <v>633600</v>
+        <v>646600</v>
       </c>
       <c r="J62" s="3">
-        <v>555700</v>
+        <v>567100</v>
       </c>
       <c r="K62" s="3">
         <v>783300</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2171,7 +2206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2200,7 +2235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2229,36 +2264,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>22349000</v>
+        <v>22806900</v>
       </c>
       <c r="E66" s="3">
-        <v>23366000</v>
+        <v>23844800</v>
       </c>
       <c r="F66" s="3">
-        <v>21871900</v>
+        <v>22320000</v>
       </c>
       <c r="G66" s="3">
-        <v>22155300</v>
+        <v>22609200</v>
       </c>
       <c r="H66" s="3">
-        <v>21277500</v>
+        <v>21713500</v>
       </c>
       <c r="I66" s="3">
-        <v>22120300</v>
+        <v>22573500</v>
       </c>
       <c r="J66" s="3">
-        <v>23193700</v>
+        <v>23669000</v>
       </c>
       <c r="K66" s="3">
         <v>24234700</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2271,7 +2306,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2300,7 +2335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2329,7 +2364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2358,7 +2393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2387,36 +2422,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2197800</v>
+        <v>2242900</v>
       </c>
       <c r="E72" s="3">
-        <v>523100</v>
+        <v>533800</v>
       </c>
       <c r="F72" s="3">
-        <v>469100</v>
+        <v>478700</v>
       </c>
       <c r="G72" s="3">
-        <v>336700</v>
+        <v>343600</v>
       </c>
       <c r="H72" s="3">
-        <v>272800</v>
+        <v>278300</v>
       </c>
       <c r="I72" s="3">
-        <v>4536200</v>
+        <v>4629200</v>
       </c>
       <c r="J72" s="3">
-        <v>272900</v>
+        <v>278500</v>
       </c>
       <c r="K72" s="3">
         <v>2188700</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2445,7 +2480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2474,7 +2509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2503,36 +2538,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7419300</v>
+        <v>7571300</v>
       </c>
       <c r="E76" s="3">
-        <v>5741400</v>
+        <v>5859000</v>
       </c>
       <c r="F76" s="3">
-        <v>5432600</v>
+        <v>5544000</v>
       </c>
       <c r="G76" s="3">
-        <v>5550800</v>
+        <v>5664600</v>
       </c>
       <c r="H76" s="3">
-        <v>5700000</v>
+        <v>5816800</v>
       </c>
       <c r="I76" s="3">
-        <v>5810800</v>
+        <v>5929900</v>
       </c>
       <c r="J76" s="3">
-        <v>5263500</v>
+        <v>5371300</v>
       </c>
       <c r="K76" s="3">
         <v>4132900</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2561,12 +2596,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2595,27 +2630,27 @@
         <v>42094</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>115400</v>
+        <v>117800</v>
       </c>
       <c r="E81" s="3">
-        <v>83100</v>
+        <v>84800</v>
       </c>
       <c r="F81" s="3">
-        <v>99200</v>
+        <v>101300</v>
       </c>
       <c r="G81" s="3">
-        <v>35700</v>
+        <v>36400</v>
       </c>
       <c r="H81" s="3">
         <v>1900</v>
       </c>
       <c r="I81" s="3">
-        <v>18600</v>
+        <v>19000</v>
       </c>
       <c r="J81" s="3">
         <v>200</v>
@@ -2624,7 +2659,7 @@
         <v>9200</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2637,36 +2672,36 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>549200</v>
+        <v>560400</v>
       </c>
       <c r="E83" s="3">
-        <v>518600</v>
+        <v>529200</v>
       </c>
       <c r="F83" s="3">
-        <v>484500</v>
+        <v>494400</v>
       </c>
       <c r="G83" s="3">
-        <v>489600</v>
+        <v>499600</v>
       </c>
       <c r="H83" s="3">
-        <v>502700</v>
+        <v>513000</v>
       </c>
       <c r="I83" s="3">
-        <v>526600</v>
+        <v>537300</v>
       </c>
       <c r="J83" s="3">
-        <v>518600</v>
+        <v>529300</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2695,7 +2730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2724,7 +2759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2753,7 +2788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2782,7 +2817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2811,36 +2846,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>980600</v>
+        <v>1000600</v>
       </c>
       <c r="E89" s="3">
-        <v>1129300</v>
+        <v>1152500</v>
       </c>
       <c r="F89" s="3">
-        <v>779800</v>
+        <v>795800</v>
       </c>
       <c r="G89" s="3">
-        <v>1097400</v>
+        <v>1119900</v>
       </c>
       <c r="H89" s="3">
-        <v>579500</v>
+        <v>591300</v>
       </c>
       <c r="I89" s="3">
-        <v>647400</v>
+        <v>660700</v>
       </c>
       <c r="J89" s="3">
-        <v>413800</v>
+        <v>422300</v>
       </c>
       <c r="K89" s="3">
         <v>-16400</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2853,36 +2888,36 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-493400</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-623000</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-688600</v>
+      </c>
+      <c r="G91" s="3">
         <v>-484100</v>
       </c>
-      <c r="E91" s="3">
-        <v>57600</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-1351400</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-940200</v>
-      </c>
       <c r="H91" s="3">
-        <v>-881600</v>
+        <v>-442200</v>
       </c>
       <c r="I91" s="3">
-        <v>-1461200</v>
+        <v>-687100</v>
       </c>
       <c r="J91" s="3">
-        <v>-1180900</v>
+        <v>-602600</v>
       </c>
       <c r="K91" s="3">
         <v>-266900</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2911,7 +2946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2940,27 +2975,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-107500</v>
+        <v>-109700</v>
       </c>
       <c r="E94" s="3">
-        <v>-619500</v>
+        <v>-632200</v>
       </c>
       <c r="F94" s="3">
-        <v>-417900</v>
+        <v>-426500</v>
       </c>
       <c r="G94" s="3">
-        <v>-489400</v>
+        <v>-499400</v>
       </c>
       <c r="H94" s="3">
-        <v>-237400</v>
+        <v>-242200</v>
       </c>
       <c r="I94" s="3">
-        <v>427500</v>
+        <v>436300</v>
       </c>
       <c r="J94" s="3">
         <v>1900</v>
@@ -2969,7 +3004,7 @@
         <v>489000</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2982,7 +3017,7 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3011,7 +3046,7 @@
         <v>-301000</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3040,7 +3075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3069,7 +3104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3098,56 +3133,56 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1354700</v>
+        <v>-1382400</v>
       </c>
       <c r="E100" s="3">
-        <v>794400</v>
+        <v>810700</v>
       </c>
       <c r="F100" s="3">
-        <v>-1061400</v>
+        <v>-1083100</v>
       </c>
       <c r="G100" s="3">
-        <v>83900</v>
+        <v>85700</v>
       </c>
       <c r="H100" s="3">
-        <v>-616400</v>
+        <v>-629000</v>
       </c>
       <c r="I100" s="3">
-        <v>-646000</v>
+        <v>-659300</v>
       </c>
       <c r="J100" s="3">
-        <v>-143000</v>
+        <v>-146000</v>
       </c>
       <c r="K100" s="3">
         <v>-232900</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="E101" s="3">
-        <v>-19300</v>
+        <v>-19700</v>
       </c>
       <c r="F101" s="3">
-        <v>-12900</v>
+        <v>-13100</v>
       </c>
       <c r="G101" s="3">
-        <v>23400</v>
+        <v>23900</v>
       </c>
       <c r="H101" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="I101" s="3">
-        <v>17100</v>
+        <v>17400</v>
       </c>
       <c r="J101" s="3">
         <v>-400</v>
@@ -3156,30 +3191,30 @@
         <v>-1600</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-476100</v>
+        <v>-485900</v>
       </c>
       <c r="E102" s="3">
-        <v>1401800</v>
+        <v>1430500</v>
       </c>
       <c r="F102" s="3">
-        <v>-829300</v>
+        <v>-846300</v>
       </c>
       <c r="G102" s="3">
-        <v>728300</v>
+        <v>743200</v>
       </c>
       <c r="H102" s="3">
-        <v>-284400</v>
+        <v>-290300</v>
       </c>
       <c r="I102" s="3">
-        <v>379900</v>
+        <v>387700</v>
       </c>
       <c r="J102" s="3">
-        <v>272300</v>
+        <v>277800</v>
       </c>
       <c r="K102" s="3">
         <v>238100</v>

--- a/Financials/Quarterly/ACH_QTR_FIN.xlsx
+++ b/Financials/Quarterly/ACH_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1735CED7-7B79-4630-BE58-4E584755827E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="ACH" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>ACH</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,155 +654,181 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="F7" s="2">
         <v>43281</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>42916</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>42551</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>42185</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12177900</v>
+        <v>13622000</v>
       </c>
       <c r="E8" s="3">
-        <v>13174400</v>
+        <v>14087400</v>
       </c>
       <c r="F8" s="3">
-        <v>13567800</v>
+        <v>11821900</v>
       </c>
       <c r="G8" s="3">
-        <v>13991100</v>
+        <v>12855700</v>
       </c>
       <c r="H8" s="3">
-        <v>7414000</v>
+        <v>13117100</v>
       </c>
       <c r="I8" s="3">
+        <v>13526300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>7167700</v>
+      </c>
+      <c r="K8" s="3">
         <v>8509000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>9816000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>3983100</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11250800</v>
+        <v>12659000</v>
       </c>
       <c r="E9" s="3">
-        <v>11957200</v>
+        <v>13088400</v>
       </c>
       <c r="F9" s="3">
-        <v>12646800</v>
+        <v>10892800</v>
       </c>
       <c r="G9" s="3">
-        <v>13017200</v>
+        <v>11632600</v>
       </c>
       <c r="H9" s="3">
-        <v>6821400</v>
+        <v>12226700</v>
       </c>
       <c r="I9" s="3">
+        <v>12584800</v>
+      </c>
+      <c r="J9" s="3">
+        <v>6594800</v>
+      </c>
+      <c r="K9" s="3">
         <v>8633300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>9321800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>3767500</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>927200</v>
+        <v>963000</v>
       </c>
       <c r="E10" s="3">
-        <v>1217100</v>
+        <v>999100</v>
       </c>
       <c r="F10" s="3">
-        <v>921000</v>
+        <v>929200</v>
       </c>
       <c r="G10" s="3">
-        <v>973800</v>
+        <v>1223100</v>
       </c>
       <c r="H10" s="3">
-        <v>592600</v>
+        <v>890400</v>
       </c>
       <c r="I10" s="3">
+        <v>941500</v>
+      </c>
+      <c r="J10" s="3">
+        <v>572900</v>
+      </c>
+      <c r="K10" s="3">
         <v>-124300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>494200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>215600</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -849,37 +840,45 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>20100</v>
+        <v>34600</v>
       </c>
       <c r="E12" s="3">
-        <v>69100</v>
+        <v>70500</v>
       </c>
       <c r="F12" s="3">
-        <v>4300</v>
+        <v>19500</v>
       </c>
       <c r="G12" s="3">
-        <v>13200</v>
+        <v>67300</v>
       </c>
       <c r="H12" s="3">
-        <v>11800</v>
+        <v>4100</v>
       </c>
       <c r="I12" s="3">
+        <v>12800</v>
+      </c>
+      <c r="J12" s="3">
+        <v>11400</v>
+      </c>
+      <c r="K12" s="3">
         <v>12700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>12300</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -907,37 +906,49 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>300</v>
+        <v>-43900</v>
       </c>
       <c r="E14" s="3">
-        <v>-45400</v>
+        <v>47100</v>
       </c>
       <c r="F14" s="3">
+        <v>8700</v>
+      </c>
+      <c r="G14" s="3">
+        <v>-43800</v>
+      </c>
+      <c r="H14" s="3">
         <v>-1000</v>
       </c>
-      <c r="G14" s="3">
-        <v>72300</v>
-      </c>
-      <c r="H14" s="3">
-        <v>-102000</v>
-      </c>
       <c r="I14" s="3">
+        <v>69900</v>
+      </c>
+      <c r="J14" s="3">
+        <v>-98600</v>
+      </c>
+      <c r="K14" s="3">
         <v>-392200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-114000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -950,23 +961,29 @@
       <c r="F15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="3">
-        <v>700</v>
-      </c>
-      <c r="H15" s="3">
-        <v>12900</v>
+      <c r="G15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I15" s="3">
+        <v>600</v>
+      </c>
+      <c r="J15" s="3">
+        <v>12500</v>
+      </c>
+      <c r="K15" s="3">
         <v>18400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>15300</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -975,66 +992,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11552900</v>
+        <v>13072000</v>
       </c>
       <c r="E17" s="3">
-        <v>12567600</v>
+        <v>13708400</v>
       </c>
       <c r="F17" s="3">
-        <v>13040800</v>
+        <v>11220100</v>
       </c>
       <c r="G17" s="3">
-        <v>13516100</v>
+        <v>12260000</v>
       </c>
       <c r="H17" s="3">
-        <v>7026700</v>
+        <v>12607600</v>
       </c>
       <c r="I17" s="3">
+        <v>13067100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>6793200</v>
+      </c>
+      <c r="K17" s="3">
         <v>8171400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>9414900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>4027200</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>625100</v>
+        <v>550000</v>
       </c>
       <c r="E18" s="3">
-        <v>606800</v>
+        <v>379100</v>
       </c>
       <c r="F18" s="3">
-        <v>527000</v>
+        <v>601800</v>
       </c>
       <c r="G18" s="3">
-        <v>475000</v>
+        <v>595800</v>
       </c>
       <c r="H18" s="3">
-        <v>387300</v>
+        <v>509500</v>
       </c>
       <c r="I18" s="3">
+        <v>459200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>374400</v>
+      </c>
+      <c r="K18" s="3">
         <v>337600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>401200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-44100</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1046,153 +1077,185 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-7500</v>
+        <v>44900</v>
       </c>
       <c r="E20" s="3">
-        <v>-22500</v>
+        <v>39300</v>
       </c>
       <c r="F20" s="3">
-        <v>48700</v>
+        <v>9500</v>
       </c>
       <c r="G20" s="3">
-        <v>51900</v>
+        <v>-7400</v>
       </c>
       <c r="H20" s="3">
-        <v>32800</v>
+        <v>67300</v>
       </c>
       <c r="I20" s="3">
+        <v>70400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>58100</v>
+      </c>
+      <c r="K20" s="3">
         <v>40900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>68700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>65900</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1178000</v>
+        <v>1190600</v>
       </c>
       <c r="E21" s="3">
-        <v>1113500</v>
+        <v>998800</v>
       </c>
       <c r="F21" s="3">
-        <v>1070100</v>
+        <v>1152500</v>
       </c>
       <c r="G21" s="3">
-        <v>1026500</v>
+        <v>1092500</v>
       </c>
       <c r="H21" s="3">
-        <v>933100</v>
+        <v>1054800</v>
       </c>
       <c r="I21" s="3">
+        <v>1012600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>928500</v>
+      </c>
+      <c r="K21" s="3">
         <v>915900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>999100</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>331400</v>
+        <v>367900</v>
       </c>
       <c r="E22" s="3">
-        <v>374300</v>
+        <v>364600</v>
       </c>
       <c r="F22" s="3">
-        <v>341400</v>
+        <v>337800</v>
       </c>
       <c r="G22" s="3">
-        <v>362200</v>
+        <v>377500</v>
       </c>
       <c r="H22" s="3">
-        <v>343600</v>
+        <v>350200</v>
       </c>
       <c r="I22" s="3">
+        <v>370400</v>
+      </c>
+      <c r="J22" s="3">
+        <v>358500</v>
+      </c>
+      <c r="K22" s="3">
         <v>379400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>448700</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>286200</v>
+        <v>227000</v>
       </c>
       <c r="E23" s="3">
-        <v>210000</v>
+        <v>53800</v>
       </c>
       <c r="F23" s="3">
-        <v>234300</v>
+        <v>273500</v>
       </c>
       <c r="G23" s="3">
-        <v>164700</v>
+        <v>210900</v>
       </c>
       <c r="H23" s="3">
-        <v>76600</v>
+        <v>226500</v>
       </c>
       <c r="I23" s="3">
+        <v>159200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>74000</v>
+      </c>
+      <c r="K23" s="3">
         <v>-800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>21200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>84300</v>
+        <v>59200</v>
       </c>
       <c r="E24" s="3">
-        <v>43600</v>
+        <v>36500</v>
       </c>
       <c r="F24" s="3">
-        <v>51700</v>
+        <v>82000</v>
       </c>
       <c r="G24" s="3">
-        <v>37100</v>
+        <v>42400</v>
       </c>
       <c r="H24" s="3">
-        <v>22900</v>
+        <v>50000</v>
       </c>
       <c r="I24" s="3">
+        <v>35900</v>
+      </c>
+      <c r="J24" s="3">
+        <v>22100</v>
+      </c>
+      <c r="K24" s="3">
         <v>-28700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-5400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1220,66 +1283,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>201900</v>
+        <v>167900</v>
       </c>
       <c r="E26" s="3">
-        <v>166400</v>
+        <v>17300</v>
       </c>
       <c r="F26" s="3">
-        <v>182600</v>
+        <v>191500</v>
       </c>
       <c r="G26" s="3">
-        <v>127600</v>
+        <v>168600</v>
       </c>
       <c r="H26" s="3">
-        <v>53700</v>
+        <v>176600</v>
       </c>
       <c r="I26" s="3">
+        <v>123400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>51900</v>
+      </c>
+      <c r="K26" s="3">
         <v>27900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>26600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>117800</v>
+        <v>86100</v>
       </c>
       <c r="E27" s="3">
-        <v>84800</v>
+        <v>-25300</v>
       </c>
       <c r="F27" s="3">
-        <v>101300</v>
+        <v>110100</v>
       </c>
       <c r="G27" s="3">
-        <v>36400</v>
+        <v>89100</v>
       </c>
       <c r="H27" s="3">
+        <v>97900</v>
+      </c>
+      <c r="I27" s="3">
+        <v>35200</v>
+      </c>
+      <c r="J27" s="3">
         <v>1900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>19000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1307,37 +1388,49 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1365,8 +1458,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1394,66 +1493,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>7500</v>
+        <v>-44900</v>
       </c>
       <c r="E32" s="3">
-        <v>22500</v>
+        <v>-39300</v>
       </c>
       <c r="F32" s="3">
-        <v>-48700</v>
+        <v>-9500</v>
       </c>
       <c r="G32" s="3">
-        <v>-51900</v>
+        <v>7400</v>
       </c>
       <c r="H32" s="3">
-        <v>-32800</v>
+        <v>-67300</v>
       </c>
       <c r="I32" s="3">
+        <v>-70400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-58100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-40900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-68700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-65900</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>117800</v>
+        <v>86100</v>
       </c>
       <c r="E33" s="3">
-        <v>84800</v>
+        <v>-25300</v>
       </c>
       <c r="F33" s="3">
-        <v>101300</v>
+        <v>110100</v>
       </c>
       <c r="G33" s="3">
-        <v>36400</v>
+        <v>89100</v>
       </c>
       <c r="H33" s="3">
+        <v>97900</v>
+      </c>
+      <c r="I33" s="3">
+        <v>35200</v>
+      </c>
+      <c r="J33" s="3">
         <v>1900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>19000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1481,71 +1598,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>117800</v>
+        <v>86100</v>
       </c>
       <c r="E35" s="3">
-        <v>84800</v>
+        <v>-25300</v>
       </c>
       <c r="F35" s="3">
-        <v>101300</v>
+        <v>110100</v>
       </c>
       <c r="G35" s="3">
-        <v>36400</v>
+        <v>89100</v>
       </c>
       <c r="H35" s="3">
+        <v>97900</v>
+      </c>
+      <c r="I35" s="3">
+        <v>35200</v>
+      </c>
+      <c r="J35" s="3">
         <v>1900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>19000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="F38" s="2">
         <v>43281</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>42916</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>42551</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>42185</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1557,8 +1692,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1570,269 +1707,325 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3632600</v>
+        <v>1711600</v>
       </c>
       <c r="E41" s="3">
-        <v>4118500</v>
+        <v>2744900</v>
       </c>
       <c r="F41" s="3">
-        <v>2687100</v>
+        <v>3511900</v>
       </c>
       <c r="G41" s="3">
-        <v>3534200</v>
+        <v>3993900</v>
       </c>
       <c r="H41" s="3">
-        <v>2778800</v>
+        <v>2597800</v>
       </c>
       <c r="I41" s="3">
+        <v>3416800</v>
+      </c>
+      <c r="J41" s="3">
+        <v>2686500</v>
+      </c>
+      <c r="K41" s="3">
         <v>3080400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2685200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2782200</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>765400</v>
+        <v>288100</v>
       </c>
       <c r="E42" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F42" s="3">
+        <v>740000</v>
+      </c>
+      <c r="G42" s="3">
         <v>1400</v>
       </c>
-      <c r="F42" s="3">
-        <v>4300</v>
-      </c>
-      <c r="G42" s="3">
-        <v>8100</v>
-      </c>
       <c r="H42" s="3">
-        <v>2800</v>
+        <v>4200</v>
       </c>
       <c r="I42" s="3">
+        <v>7900</v>
+      </c>
+      <c r="J42" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K42" s="3">
         <v>33700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>625900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1371300</v>
+        <v>1354800</v>
       </c>
       <c r="E43" s="3">
-        <v>1191200</v>
+        <v>1162300</v>
       </c>
       <c r="F43" s="3">
-        <v>1256100</v>
+        <v>1325800</v>
       </c>
       <c r="G43" s="3">
-        <v>1090700</v>
+        <v>1149100</v>
       </c>
       <c r="H43" s="3">
-        <v>976200</v>
+        <v>1214400</v>
       </c>
       <c r="I43" s="3">
+        <v>1054500</v>
+      </c>
+      <c r="J43" s="3">
+        <v>943800</v>
+      </c>
+      <c r="K43" s="3">
         <v>763300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1000200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1997700</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3383700</v>
+        <v>3198400</v>
       </c>
       <c r="E44" s="3">
-        <v>3019700</v>
+        <v>2935600</v>
       </c>
       <c r="F44" s="3">
-        <v>3007100</v>
+        <v>3271300</v>
       </c>
       <c r="G44" s="3">
-        <v>2661500</v>
+        <v>2948200</v>
       </c>
       <c r="H44" s="3">
-        <v>2855600</v>
+        <v>2907200</v>
       </c>
       <c r="I44" s="3">
+        <v>2573100</v>
+      </c>
+      <c r="J44" s="3">
+        <v>2760700</v>
+      </c>
+      <c r="K44" s="3">
         <v>3018900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>3481100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>3772000</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1241300</v>
+        <v>1939200</v>
       </c>
       <c r="E45" s="3">
-        <v>1813000</v>
+        <v>1605300</v>
       </c>
       <c r="F45" s="3">
-        <v>2207800</v>
+        <v>1200100</v>
       </c>
       <c r="G45" s="3">
-        <v>2572700</v>
+        <v>1756500</v>
       </c>
       <c r="H45" s="3">
-        <v>2947700</v>
+        <v>2134500</v>
       </c>
       <c r="I45" s="3">
+        <v>2487300</v>
+      </c>
+      <c r="J45" s="3">
+        <v>2849800</v>
+      </c>
+      <c r="K45" s="3">
         <v>2670600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>2440000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1132900</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10394300</v>
+        <v>8492100</v>
       </c>
       <c r="E46" s="3">
-        <v>10143700</v>
+        <v>8450300</v>
       </c>
       <c r="F46" s="3">
-        <v>9162400</v>
+        <v>10049000</v>
       </c>
       <c r="G46" s="3">
-        <v>9867300</v>
+        <v>9849100</v>
       </c>
       <c r="H46" s="3">
-        <v>9561300</v>
+        <v>8858000</v>
       </c>
       <c r="I46" s="3">
+        <v>9539500</v>
+      </c>
+      <c r="J46" s="3">
+        <v>9243600</v>
+      </c>
+      <c r="K46" s="3">
         <v>9566900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>10232300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>9689300</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2096500</v>
+        <v>1723700</v>
       </c>
       <c r="E47" s="3">
-        <v>2207000</v>
+        <v>1648100</v>
       </c>
       <c r="F47" s="3">
-        <v>2023900</v>
+        <v>2026900</v>
       </c>
       <c r="G47" s="3">
-        <v>1830100</v>
+        <v>2133700</v>
       </c>
       <c r="H47" s="3">
-        <v>1721000</v>
+        <v>1956700</v>
       </c>
       <c r="I47" s="3">
+        <v>1769300</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1663900</v>
+      </c>
+      <c r="K47" s="3">
         <v>1615300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>981800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>1014700</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>14932200</v>
+        <v>16907700</v>
       </c>
       <c r="E48" s="3">
-        <v>14459500</v>
+        <v>15402500</v>
       </c>
       <c r="F48" s="3">
-        <v>13918800</v>
+        <v>14436200</v>
       </c>
       <c r="G48" s="3">
-        <v>13672100</v>
+        <v>13911800</v>
       </c>
       <c r="H48" s="3">
-        <v>13026000</v>
+        <v>13456400</v>
       </c>
       <c r="I48" s="3">
+        <v>13218000</v>
+      </c>
+      <c r="J48" s="3">
+        <v>12593300</v>
+      </c>
+      <c r="K48" s="3">
         <v>13598300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>13894500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>13660000</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2166400</v>
+        <v>1928900</v>
       </c>
       <c r="E49" s="3">
-        <v>2133200</v>
+        <v>2462100</v>
       </c>
       <c r="F49" s="3">
-        <v>2045600</v>
+        <v>2094500</v>
       </c>
       <c r="G49" s="3">
-        <v>2071000</v>
+        <v>2039500</v>
       </c>
       <c r="H49" s="3">
-        <v>1932600</v>
+        <v>1977600</v>
       </c>
       <c r="I49" s="3">
+        <v>2002200</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1868400</v>
+      </c>
+      <c r="K49" s="3">
         <v>2463200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>2093000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>2064100</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,8 +2053,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,37 +2088,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>788800</v>
+        <v>806900</v>
       </c>
       <c r="E52" s="3">
-        <v>760400</v>
+        <v>858800</v>
       </c>
       <c r="F52" s="3">
-        <v>713300</v>
+        <v>762600</v>
       </c>
       <c r="G52" s="3">
-        <v>833300</v>
+        <v>735600</v>
       </c>
       <c r="H52" s="3">
-        <v>1289300</v>
+        <v>689600</v>
       </c>
       <c r="I52" s="3">
+        <v>805600</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1246500</v>
+      </c>
+      <c r="K52" s="3">
         <v>1661600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1838700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1939600</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1947,37 +2158,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>30378200</v>
+        <v>29859200</v>
       </c>
       <c r="E54" s="3">
-        <v>29703800</v>
+        <v>28821700</v>
       </c>
       <c r="F54" s="3">
-        <v>27864000</v>
+        <v>29369100</v>
       </c>
       <c r="G54" s="3">
-        <v>28273800</v>
+        <v>28669700</v>
       </c>
       <c r="H54" s="3">
-        <v>27530200</v>
+        <v>26938400</v>
       </c>
       <c r="I54" s="3">
+        <v>27334600</v>
+      </c>
+      <c r="J54" s="3">
+        <v>26615700</v>
+      </c>
+      <c r="K54" s="3">
         <v>28503400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>29040300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>28367600</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1989,8 +2212,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2002,182 +2227,220 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3866800</v>
+        <v>1959800</v>
       </c>
       <c r="E57" s="3">
-        <v>3995900</v>
+        <v>2009800</v>
       </c>
       <c r="F57" s="3">
-        <v>4009400</v>
+        <v>2232800</v>
       </c>
       <c r="G57" s="3">
-        <v>3615300</v>
+        <v>1773500</v>
       </c>
       <c r="H57" s="3">
-        <v>3507800</v>
+        <v>1854800</v>
       </c>
       <c r="I57" s="3">
+        <v>1627500</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1786700</v>
+      </c>
+      <c r="K57" s="3">
         <v>3979900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>4303200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1525700</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7870800</v>
+        <v>7148500</v>
       </c>
       <c r="E58" s="3">
-        <v>9313100</v>
+        <v>6817200</v>
       </c>
       <c r="F58" s="3">
-        <v>10250000</v>
+        <v>7609300</v>
       </c>
       <c r="G58" s="3">
-        <v>8676000</v>
+        <v>9036500</v>
       </c>
       <c r="H58" s="3">
-        <v>8967500</v>
+        <v>9909500</v>
       </c>
       <c r="I58" s="3">
+        <v>8387800</v>
+      </c>
+      <c r="J58" s="3">
+        <v>8669600</v>
+      </c>
+      <c r="K58" s="3">
         <v>8127100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>8295700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>6487900</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>416600</v>
+        <v>1928200</v>
       </c>
       <c r="E59" s="3">
+        <v>1897900</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1908300</v>
+      </c>
+      <c r="G59" s="3">
+        <v>4246800</v>
+      </c>
+      <c r="H59" s="3">
+        <v>2057700</v>
+      </c>
+      <c r="I59" s="3">
+        <v>1919400</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1631800</v>
+      </c>
+      <c r="K59" s="3">
+        <v>34000</v>
+      </c>
+      <c r="L59" s="3">
         <v>44500</v>
       </c>
-      <c r="F59" s="3">
-        <v>37600</v>
-      </c>
-      <c r="G59" s="3">
-        <v>53500</v>
-      </c>
-      <c r="H59" s="3">
-        <v>28200</v>
-      </c>
-      <c r="I59" s="3">
-        <v>34000</v>
-      </c>
-      <c r="J59" s="3">
-        <v>44500</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>6216800</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>12154200</v>
+        <v>11036400</v>
       </c>
       <c r="E60" s="3">
-        <v>13353500</v>
+        <v>10724900</v>
       </c>
       <c r="F60" s="3">
-        <v>14296900</v>
+        <v>11750400</v>
       </c>
       <c r="G60" s="3">
-        <v>12344700</v>
+        <v>12961600</v>
       </c>
       <c r="H60" s="3">
-        <v>12503500</v>
+        <v>13822000</v>
       </c>
       <c r="I60" s="3">
+        <v>11934600</v>
+      </c>
+      <c r="J60" s="3">
+        <v>12088100</v>
+      </c>
+      <c r="K60" s="3">
         <v>12141000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>12643400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>14230400</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7452300</v>
+        <v>8275000</v>
       </c>
       <c r="E61" s="3">
-        <v>5979400</v>
+        <v>7777700</v>
       </c>
       <c r="F61" s="3">
-        <v>5244800</v>
+        <v>7204700</v>
       </c>
       <c r="G61" s="3">
-        <v>7023200</v>
+        <v>5780800</v>
       </c>
       <c r="H61" s="3">
-        <v>6887800</v>
+        <v>5070600</v>
       </c>
       <c r="I61" s="3">
+        <v>6789900</v>
+      </c>
+      <c r="J61" s="3">
+        <v>6659000</v>
+      </c>
+      <c r="K61" s="3">
         <v>8014300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>8748700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>7550100</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>660500</v>
+        <v>582900</v>
       </c>
       <c r="E62" s="3">
-        <v>648000</v>
+        <v>609900</v>
       </c>
       <c r="F62" s="3">
-        <v>596400</v>
+        <v>638500</v>
       </c>
       <c r="G62" s="3">
-        <v>626600</v>
+        <v>494600</v>
       </c>
       <c r="H62" s="3">
-        <v>602200</v>
+        <v>576600</v>
       </c>
       <c r="I62" s="3">
+        <v>605800</v>
+      </c>
+      <c r="J62" s="3">
+        <v>582200</v>
+      </c>
+      <c r="K62" s="3">
         <v>646600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>567100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>783300</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2205,8 +2468,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2234,8 +2503,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2263,37 +2538,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>22806900</v>
+        <v>22232100</v>
       </c>
       <c r="E66" s="3">
-        <v>23844800</v>
+        <v>21301200</v>
       </c>
       <c r="F66" s="3">
-        <v>22320000</v>
+        <v>22049300</v>
       </c>
       <c r="G66" s="3">
-        <v>22609200</v>
+        <v>22975300</v>
       </c>
       <c r="H66" s="3">
-        <v>21713500</v>
+        <v>21578600</v>
       </c>
       <c r="I66" s="3">
+        <v>21858200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>20992200</v>
+      </c>
+      <c r="K66" s="3">
         <v>22573500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>23669000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>24234700</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2305,8 +2592,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2334,8 +2623,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2363,8 +2658,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2392,8 +2693,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2421,37 +2728,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2242900</v>
+        <v>701800</v>
       </c>
       <c r="E72" s="3">
-        <v>533800</v>
+        <v>2136000</v>
       </c>
       <c r="F72" s="3">
-        <v>478700</v>
+        <v>2168400</v>
       </c>
       <c r="G72" s="3">
-        <v>343600</v>
+        <v>521500</v>
       </c>
       <c r="H72" s="3">
-        <v>278300</v>
+        <v>462800</v>
       </c>
       <c r="I72" s="3">
+        <v>332200</v>
+      </c>
+      <c r="J72" s="3">
+        <v>269100</v>
+      </c>
+      <c r="K72" s="3">
         <v>4629200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>278500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>2188700</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2479,8 +2798,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2508,8 +2833,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2537,37 +2868,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7571300</v>
+        <v>7627100</v>
       </c>
       <c r="E76" s="3">
-        <v>5859000</v>
+        <v>7520500</v>
       </c>
       <c r="F76" s="3">
-        <v>5544000</v>
+        <v>7319800</v>
       </c>
       <c r="G76" s="3">
-        <v>5664600</v>
+        <v>5694400</v>
       </c>
       <c r="H76" s="3">
-        <v>5816800</v>
+        <v>5359800</v>
       </c>
       <c r="I76" s="3">
+        <v>5476400</v>
+      </c>
+      <c r="J76" s="3">
+        <v>5623500</v>
+      </c>
+      <c r="K76" s="3">
         <v>5929900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>5371300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>4132900</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2595,71 +2938,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="F80" s="2">
         <v>43281</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>42916</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>42551</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>42185</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>117800</v>
+        <v>86100</v>
       </c>
       <c r="E81" s="3">
-        <v>84800</v>
+        <v>-25300</v>
       </c>
       <c r="F81" s="3">
-        <v>101300</v>
+        <v>110100</v>
       </c>
       <c r="G81" s="3">
-        <v>36400</v>
+        <v>89100</v>
       </c>
       <c r="H81" s="3">
+        <v>97900</v>
+      </c>
+      <c r="I81" s="3">
+        <v>35200</v>
+      </c>
+      <c r="J81" s="3">
         <v>1900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>19000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2671,37 +3032,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>560400</v>
+        <v>595600</v>
       </c>
       <c r="E83" s="3">
-        <v>529200</v>
+        <v>579700</v>
       </c>
       <c r="F83" s="3">
-        <v>494400</v>
+        <v>541900</v>
       </c>
       <c r="G83" s="3">
-        <v>499600</v>
+        <v>511600</v>
       </c>
       <c r="H83" s="3">
-        <v>513000</v>
+        <v>478000</v>
       </c>
       <c r="I83" s="3">
+        <v>483000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>495900</v>
+      </c>
+      <c r="K83" s="3">
         <v>537300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>529300</v>
       </c>
-      <c r="K83" s="3" t="s">
+      <c r="M83" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2729,8 +3098,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2758,8 +3133,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2787,8 +3168,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2816,8 +3203,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2845,37 +3238,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1000600</v>
+        <v>434700</v>
       </c>
       <c r="E89" s="3">
-        <v>1152500</v>
+        <v>892000</v>
       </c>
       <c r="F89" s="3">
-        <v>795800</v>
+        <v>975800</v>
       </c>
       <c r="G89" s="3">
-        <v>1119900</v>
+        <v>1125400</v>
       </c>
       <c r="H89" s="3">
-        <v>591300</v>
+        <v>769400</v>
       </c>
       <c r="I89" s="3">
+        <v>1082700</v>
+      </c>
+      <c r="J89" s="3">
+        <v>571700</v>
+      </c>
+      <c r="K89" s="3">
         <v>660700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>422300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-16400</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2887,37 +3292,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-493400</v>
+        <v>-400</v>
       </c>
       <c r="E91" s="3">
-        <v>-623000</v>
+        <v>-490900</v>
       </c>
       <c r="F91" s="3">
-        <v>-688600</v>
+        <v>-477000</v>
       </c>
       <c r="G91" s="3">
-        <v>-484100</v>
+        <v>-602300</v>
       </c>
       <c r="H91" s="3">
-        <v>-442200</v>
+        <v>-665700</v>
       </c>
       <c r="I91" s="3">
+        <v>-468000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-427500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-687100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-602600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-266900</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2945,8 +3358,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2974,37 +3393,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-109700</v>
+        <v>-933200</v>
       </c>
       <c r="E94" s="3">
-        <v>-632200</v>
+        <v>-687200</v>
       </c>
       <c r="F94" s="3">
-        <v>-426500</v>
+        <v>-106000</v>
       </c>
       <c r="G94" s="3">
-        <v>-499400</v>
+        <v>-390800</v>
       </c>
       <c r="H94" s="3">
-        <v>-242200</v>
+        <v>-412300</v>
       </c>
       <c r="I94" s="3">
+        <v>-482800</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-234200</v>
+      </c>
+      <c r="K94" s="3">
         <v>436300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>1900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>489000</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3016,8 +3447,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3043,10 +3476,16 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-301000</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3074,8 +3513,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3103,8 +3548,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3132,91 +3583,115 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1382400</v>
+        <v>-530300</v>
       </c>
       <c r="E100" s="3">
-        <v>810700</v>
+        <v>-1003300</v>
       </c>
       <c r="F100" s="3">
-        <v>-1083100</v>
+        <v>-1330600</v>
       </c>
       <c r="G100" s="3">
-        <v>85700</v>
+        <v>783700</v>
       </c>
       <c r="H100" s="3">
-        <v>-629000</v>
+        <v>-1047200</v>
       </c>
       <c r="I100" s="3">
+        <v>82800</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-608100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-659300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-146000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-232900</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>5600</v>
+        <v>-4500</v>
       </c>
       <c r="E101" s="3">
-        <v>-19700</v>
+        <v>4800</v>
       </c>
       <c r="F101" s="3">
-        <v>-13100</v>
+        <v>5400</v>
       </c>
       <c r="G101" s="3">
-        <v>23900</v>
+        <v>-19100</v>
       </c>
       <c r="H101" s="3">
-        <v>4500</v>
+        <v>-12700</v>
       </c>
       <c r="I101" s="3">
+        <v>23100</v>
+      </c>
+      <c r="J101" s="3">
+        <v>4400</v>
+      </c>
+      <c r="K101" s="3">
         <v>17400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-485900</v>
+        <v>-1033300</v>
       </c>
       <c r="E102" s="3">
-        <v>1430500</v>
+        <v>-779300</v>
       </c>
       <c r="F102" s="3">
-        <v>-846300</v>
+        <v>-469700</v>
       </c>
       <c r="G102" s="3">
-        <v>743200</v>
+        <v>1390300</v>
       </c>
       <c r="H102" s="3">
-        <v>-290300</v>
+        <v>-818200</v>
       </c>
       <c r="I102" s="3">
+        <v>718500</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-280600</v>
+      </c>
+      <c r="K102" s="3">
         <v>387700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>277800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>238100</v>
       </c>
     </row>
